--- a/outputs/HONULULU2.xlsx
+++ b/outputs/HONULULU2.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The subgoal of finding the syllabus is explicitly mentioned in the introductory text on the page. The instructions clearly state that to begin the course, one should click on "Syllabus" in the left pane and read through it carefully. This aligns with Abi's motivation to accomplish tasks using familiar methods and her comprehensive information processing style, where she prefers to gather all necessary information before proceeding.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page explicitly mentions that to begin the course, Abi should click on "Syllabus" in the left pane and read through it carefully. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the syllabus is likely to contain important information about the course structure and requirements.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Learning Style, Information Processing Style
-Why: The page clearly instructs Abi to click on the "Syllabus" link in the left pane to start the course. This aligns with Abi's preference for process-oriented learning, as she is given specific instructions to follow. Additionally, the clear and detailed instructions support her comprehensive information processing style by providing a clear next step in the process.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as they are likely to follow the step-by-step instructions provided to gather all necessary information.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking on "Syllabus," Abi is directed to a page titled "Course Syllabus," which contains a detailed weekly schedule and links to additional resources like the syllabus in PDF format and course introduction. This aligns with Abi's motivation to complete tasks using familiar methods and provides a comprehensive overview, supporting her information processing style. Abi will know she has done the right thing and is making progress toward her goal by seeing the detailed syllabus and additional information provided.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the weekly schedule and other relevant course materials. This confirms to Abi that they have done the right thing and are making progress toward their goal. The comprehensive information provided aligns with Abi's motivation to accomplish tasks and their preference for a thorough information processing style.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Reading the syllabus is a fundamental step in understanding the course structure, expectations, and requirements. For Abi, who is motivated to accomplish her tasks methodically and uses a comprehensive information processing style, reading the syllabus will provide the detailed information she needs to get started with the course. The layout and contents of the page make it clear that reading through the syllabus is an essential step toward achieving her overall goal of starting the course.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Reading the syllabus is a crucial step in understanding the course structure, requirements, and schedule. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the syllabus provides detailed information necessary for getting started with the course.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Learning Style, Information Processing Style
-Why: The page provides a clearly labeled link "Syllabus (PDF)" which suggests that clicking on it will open or download the syllabus in PDF format. This aligns with Abi's process-oriented learning style, as the link is explicit and straightforward. Additionally, the presence of the word "Syllabus" in the link provides a clear indication that this action will help her access the detailed syllabus, supporting her comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists "Syllabus (PDF)" as an option under "Course Syllabus," indicating that clicking on it will provide the syllabus in PDF format. This aligns with Abi's motivation to gather all necessary information and their comprehensive information processing style, as they are likely to follow the provided options to access detailed course information.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking on "Syllabus (PDF)," Abi lands on a page that contains a detailed syllabus, including important information such as course rules, response times, course content, and learning outcomes. This comprehensive document aligns with Abi's motivation to gather all necessary information before starting the course and supports her comprehensive information processing style. The detailed content ensures that Abi will know she is making progress toward her goal and has access to all the information she needs.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Syllabus (PDF)," Abi lands on a page that provides a detailed syllabus, including course rules, response times, course description, content, learning outcomes, and tools. This comprehensive information confirms to Abi that they have done the right thing and are making progress toward their goal of getting started with the course. The detailed syllabus aligns with Abi's motivation to gather all necessary information and their preference for a thorough information processing style.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: None of the Above
-Why: The provided syllabus page does not explicitly mention "Modules" as a section to be read or reviewed. While the syllabus covers detailed course information, it does not direct Abi to look for information under "Modules" specifically. Since Abi prefers clear instructions and process-oriented steps, it's unlikely she would think to look under "Modules" without explicit direction. The current content does not prompt her to consider this as a necessary step toward getting started with the course.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 3. Attitude Towards Risk
+Why: The current page provides detailed information about the syllabus, including course rules, content, and tools. However, it does not explicitly mention the need to read information under "Modules" as a step toward getting started with the course. Given Abi's motivation to follow clear instructions and their comprehensive information processing style, they might not think of checking the "Modules" section unless explicitly directed to do so. Additionally, Abi's risk-averse nature means they are less likely to explore unfamiliar sections without clear guidance.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Learning Style, Information Processing Style, Computer Self-Efficacy
-Why: The current page does not provide explicit instructions or context about clicking on "Modules." Abi, who prefers process-oriented learning and comprehensive information, would likely need clear guidance to understand that clicking on "Modules" is the next step. Additionally, due to her low confidence with unfamiliar computing tasks, Abi may not feel comfortable clicking on "Modules" without a clear indication of what she will find or achieve by doing so. The lack of explicit direction on the syllabus page makes it unclear for Abi to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The current page does not provide explicit instructions or context about clicking on "Modules." Given Abi's motivation to follow clear instructions and their comprehensive information processing style, they might not know to click on "Modules" without explicit guidance. Additionally, Abi's low computer self-efficacy means they are less likely to take actions without clear instructions, as they might fear making a mistake or not knowing what to expect.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking on "Modules," Abi is taken to a page that lists detailed module information, including various sections and activities for each module. This layout provides a clear structure and comprehensive details, aligning with Abi's motivation to gather all necessary information and her comprehensive information processing style. The organized presentation of the modules helps Abi understand that she is making progress towards her goal and provides her with the information she needs to get started with the course.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including various sections and tasks to be completed. This comprehensive layout confirms to Abi that they have done the right thing and are making progress toward their goal of getting started with the course. The detailed information aligns with Abi's motivation to gather all necessary information and their preference for a thorough information processing style.</t>
         </is>
       </c>
     </row>

--- a/outputs/HONULULU2.xlsx
+++ b/outputs/HONULULU2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The syllabus is a crucial document that outlines the course structure, objectives, and requirements. Abi, who prefers to gather comprehensive information before proceeding, would consider finding the syllabus an essential step toward understanding the course and getting started. The page also explicitly mentions the importance of reading the syllabus, reinforcing its significance.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The syllabus is explicitly mentioned as a necessary step to begin the course, and it is highlighted in the instructions on the page. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would recognize the importance of reading the syllabus to understand the course structure and requirements.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's preference for process-oriented learning and comprehensive information processing. The explicit instruction provides clear guidance on what to do next, making it easy for Abi to follow the step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with her motivation to accomplish tasks and her comprehensive information processing style, as she would follow the explicit instructions provided to achieve her subgoal of finding the syllabus.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the course schedule and assignments. This aligns with Abi's comprehensive information processing style, as the page provides a clear and detailed overview of what to expect in the course. The presence of the syllabus and related documents confirms that Abi has made progress toward the goal of getting started with the course.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the weekly schedule and other relevant course materials. This clear and comprehensive presentation of the syllabus confirms to Abi that she has done the right thing and is making progress toward her goal of getting started with the course. The detailed information aligns with her comprehensive information processing style, ensuring she has all the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Reading the syllabus is a critical step in understanding the course structure, requirements, and expectations. Abi, who prefers to gather comprehensive information before proceeding, would consider reading the syllabus an essential step toward getting started with the course. The page provides detailed information about the weekly schedule and assignments, which aligns with Abi's need for thorough understanding.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Reading the syllabus is a crucial step in understanding the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would recognize that reading the syllabus is essential for getting started with the course and ensuring she has all the necessary information to proceed effectively.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The page provides a clear link labeled "Syllabus (PDF)" which indicates that clicking it will open the syllabus in PDF format. This aligns with Abi's preference for process-oriented learning and comprehensive information processing. The label is explicit and straightforward, making it clear to Abi what action to take next to read the syllabus.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Syllabus (PDF)" link is clearly labeled and prominently displayed on the page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would understand that clicking this link will provide her with the detailed syllabus in PDF format, which is a necessary step toward reading and understanding the course requirements.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on "Syllabus (PDF)," Abi lands on a detailed document that includes comprehensive information about the course, such as instructor details, fundamental rules, response times, course description, content, learning outcomes, and course tools. This aligns with Abi's need for thorough and detailed information to feel confident about getting started with the course. The document provides all the necessary information, confirming that Abi has made progress toward the goal of reading the syllabus and getting started with the course.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Syllabus (PDF)," Abi lands on a detailed document that includes comprehensive information about the course, such as instructor details, course content, learning outcomes, and tools required. This aligns with her motivation to accomplish tasks and her comprehensive information processing style, as she will recognize that she has accessed the full syllabus and is making progress toward her goal of getting started with the course. The detailed information provided ensures that she has all the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: None of the Above
-Why: The subgoal of reading information under "Modules" is not directly indicated or suggested by the current page, which is focused on the syllabus. The syllabus page provides comprehensive information about the course structure, rules, and content, but it does not explicitly direct Abi to read information under "Modules" as a next step. Therefore, Abi might not naturally think of this as a step toward achieving the overall use case of getting started with the course based on the information provided on this page.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The current page is the syllabus PDF, which provides detailed information about the course structure, content, and requirements. While the syllabus mentions "modules" as part of the course content, it does not explicitly direct Abi to read information under the "Modules" section as a next step. Given Abi's motivation to follow clear instructions and her comprehensive information processing style, she would likely focus on the detailed information provided in the syllabus PDF rather than thinking about navigating to the "Modules" section at this point.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Learning Style
-Why: The current page does not provide explicit instructions or context about what to do next, such as clicking on "Modules." Abi, who has low confidence in unfamiliar computing tasks and prefers process-oriented learning, might not know that clicking on "Modules" is the next step. The page focuses on the syllabus content without guiding Abi to the next action, which could lead to uncertainty about what to do next.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The current page is the syllabus PDF, which does not provide explicit instructions or a clear indication that Abi should click on "Modules" next. Given Abi's low confidence in unfamiliar computing tasks and her preference for process-oriented learning, she may not know to navigate to the "Modules" section without clear guidance. The lack of explicit direction on this page would likely cause uncertainty for Abi.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including lessons, assignments, quizzes, and other relevant information. This aligns with Abi's preference for comprehensive information processing, as the page offers a clear and structured overview of the course content. The detailed layout and organization of the modules will help Abi understand that they are making progress toward their goal of getting started with the course and accessing all necessary information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Modules," Abi lands on a page that clearly lists all the course modules in a structured and detailed manner. This aligns with her motivation to accomplish tasks and her comprehensive information processing style, as she will recognize that she has accessed the necessary information about the course modules. The detailed breakdown of each module ensures that she knows she is making progress toward her goal of getting started with the course and has all the information she needs.</t>
         </is>
       </c>
     </row>
